--- a/Finflux Automation Excels/Client/4759-SUBMIT01SEP2014(AMT5000-LCKIN12MNT-DEPPRD6MNT)-ACT01SEP2014-MKEPAYMENT02FEB2015-PREMATURECLOSE2MAR2015.xlsx
+++ b/Finflux Automation Excels/Client/4759-SUBMIT01SEP2014(AMT5000-LCKIN12MNT-DEPPRD6MNT)-ACT01SEP2014-MKEPAYMENT02FEB2015-PREMATURECLOSE2MAR2015.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="NewRDInput" sheetId="1" r:id="rId1"/>
@@ -194,9 +194,6 @@
     <t>error</t>
   </si>
   <si>
-    <t>Withdrawals blocked until after `01 September 2015`.</t>
-  </si>
-  <si>
     <t>SavingLockInPeriod</t>
   </si>
   <si>
@@ -204,6 +201,9 @@
   </si>
   <si>
     <t>$ 30,130.79</t>
+  </si>
+  <si>
+    <t>Withdrawals blocked until `01 September 2015`.</t>
   </si>
 </sst>
 </file>
@@ -277,14 +277,14 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -674,7 +674,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="2">
         <v>12</v>
@@ -803,12 +803,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -849,7 +849,7 @@
         <v>27</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -894,7 +894,7 @@
         <v>33</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>34</v>
@@ -916,7 +916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -926,22 +926,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -956,10 +956,10 @@
         <v>47</v>
       </c>
       <c r="D2" s="4"/>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>5000</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>5000</v>
       </c>
     </row>
@@ -1074,8 +1074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1088,7 +1088,7 @@
         <v>55</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
